--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999964382842</v>
+        <v>0.992651046408802</v>
       </c>
       <c r="E2">
-        <v>0.9999999964382842</v>
+        <v>0.992651046408802</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9176609379089765</v>
+        <v>0.99886708929831</v>
       </c>
       <c r="E3">
-        <v>0.9176609379089765</v>
+        <v>0.99886708929831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999999994332405</v>
+        <v>0.9999999999265423</v>
       </c>
       <c r="E4">
-        <v>0.9999999994332405</v>
+        <v>0.9999999999265423</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5.271923620485236E-06</v>
+        <v>5.503754144703708E-09</v>
       </c>
       <c r="E5">
-        <v>5.271923620485236E-06</v>
+        <v>5.503754144703708E-09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.588866567351125E-22</v>
+        <v>9.0827815975469E-19</v>
       </c>
       <c r="E6">
-        <v>1.588866567351125E-22</v>
+        <v>9.0827815975469E-19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.157805117958483E-21</v>
+        <v>6.001768742932272E-15</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.999999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999998188530248</v>
+        <v>0.9999999543435237</v>
       </c>
       <c r="E8">
-        <v>1.811469751977768E-07</v>
+        <v>4.56564762663092E-08</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9996365238840138</v>
+        <v>0.9850699954689528</v>
       </c>
       <c r="E9">
-        <v>0.0003634761159861943</v>
+        <v>0.0149300045310472</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.06348510308348E-12</v>
+        <v>2.98732360898077E-05</v>
       </c>
       <c r="E10">
-        <v>0.9999999999949365</v>
+        <v>0.9999701267639102</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9998150410282521</v>
+        <v>0.9999954721950703</v>
       </c>
       <c r="E11">
-        <v>0.0001849589717478617</v>
+        <v>4.527804929654877E-06</v>
       </c>
       <c r="F11">
-        <v>11.68357372283936</v>
+        <v>7.821080207824707</v>
       </c>
       <c r="G11">
         <v>0.5</v>
